--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd200r1-Cd200.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd200r1-Cd200.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>9.413704179104119</v>
+        <v>0.04854733333333333</v>
       </c>
       <c r="H2">
-        <v>9.413704179104119</v>
+        <v>0.145642</v>
       </c>
       <c r="I2">
-        <v>0.4022300342283218</v>
+        <v>0.001927133137983325</v>
       </c>
       <c r="J2">
-        <v>0.4022300342283218</v>
+        <v>0.001927133137983326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.6909230213197</v>
+        <v>62.52283866666667</v>
       </c>
       <c r="N2">
-        <v>57.6909230213197</v>
+        <v>187.568516</v>
       </c>
       <c r="O2">
-        <v>0.7453736188852874</v>
+        <v>0.723891918581047</v>
       </c>
       <c r="P2">
-        <v>0.7453736188852874</v>
+        <v>0.723891918581047</v>
       </c>
       <c r="Q2">
-        <v>543.0852831421713</v>
+        <v>3.035317089696889</v>
       </c>
       <c r="R2">
-        <v>543.0852831421713</v>
+        <v>27.317853807272</v>
       </c>
       <c r="S2">
-        <v>0.2998116562371172</v>
+        <v>0.001395036104615863</v>
       </c>
       <c r="T2">
-        <v>0.2998116562371172</v>
+        <v>0.001395036104615863</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>9.413704179104119</v>
+        <v>0.04854733333333333</v>
       </c>
       <c r="H3">
-        <v>9.413704179104119</v>
+        <v>0.145642</v>
       </c>
       <c r="I3">
-        <v>0.4022300342283218</v>
+        <v>0.001927133137983325</v>
       </c>
       <c r="J3">
-        <v>0.4022300342283218</v>
+        <v>0.001927133137983326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.9278633173322</v>
+        <v>2.158875666666667</v>
       </c>
       <c r="N3">
-        <v>1.9278633173322</v>
+        <v>6.476627000000001</v>
       </c>
       <c r="O3">
-        <v>0.02490822441903142</v>
+        <v>0.02499554853312275</v>
       </c>
       <c r="P3">
-        <v>0.02490822441903142</v>
+        <v>0.02499554853312275</v>
       </c>
       <c r="Q3">
-        <v>18.14833496711166</v>
+        <v>0.1048076566148889</v>
       </c>
       <c r="R3">
-        <v>18.14833496711166</v>
+        <v>0.943268909534</v>
       </c>
       <c r="S3">
-        <v>0.01001883596063373</v>
+        <v>4.816974988025135E-05</v>
       </c>
       <c r="T3">
-        <v>0.01001883596063373</v>
+        <v>4.816974988025136E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,196 +652,196 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>9.413704179104119</v>
+        <v>0.04854733333333333</v>
       </c>
       <c r="H4">
-        <v>9.413704179104119</v>
+        <v>0.145642</v>
       </c>
       <c r="I4">
-        <v>0.4022300342283218</v>
+        <v>0.001927133137983325</v>
       </c>
       <c r="J4">
-        <v>0.4022300342283218</v>
+        <v>0.001927133137983326</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>17.7798786524662</v>
+        <v>0.08558466666666666</v>
       </c>
       <c r="N4">
-        <v>17.7798786524662</v>
+        <v>0.256754</v>
       </c>
       <c r="O4">
-        <v>0.2297181566956812</v>
+        <v>0.0009909026825341953</v>
       </c>
       <c r="P4">
-        <v>0.2297181566956812</v>
+        <v>0.0009909026825341953</v>
       </c>
       <c r="Q4">
-        <v>167.3745179746852</v>
+        <v>0.004154907340888889</v>
       </c>
       <c r="R4">
-        <v>167.3745179746852</v>
+        <v>0.03739416606799999</v>
       </c>
       <c r="S4">
-        <v>0.09239954203057081</v>
+        <v>1.909601396028219E-06</v>
       </c>
       <c r="T4">
-        <v>0.09239954203057081</v>
+        <v>1.909601396028219E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>7.5058728696125</v>
+        <v>0.04854733333333333</v>
       </c>
       <c r="H5">
-        <v>7.5058728696125</v>
+        <v>0.145642</v>
       </c>
       <c r="I5">
-        <v>0.3207119582065502</v>
+        <v>0.001927133137983325</v>
       </c>
       <c r="J5">
-        <v>0.3207119582065502</v>
+        <v>0.001927133137983326</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>57.6909230213197</v>
+        <v>0.5874603333333334</v>
       </c>
       <c r="N5">
-        <v>57.6909230213197</v>
+        <v>1.762381</v>
       </c>
       <c r="O5">
-        <v>0.7453736188852874</v>
+        <v>0.006801639158678337</v>
       </c>
       <c r="P5">
-        <v>0.7453736188852874</v>
+        <v>0.006801639158678337</v>
       </c>
       <c r="Q5">
-        <v>433.0207339286267</v>
+        <v>0.02851963262244445</v>
       </c>
       <c r="R5">
-        <v>433.0207339286267</v>
+        <v>0.256676693602</v>
       </c>
       <c r="S5">
-        <v>0.2390502329082034</v>
+        <v>1.310766421529405E-05</v>
       </c>
       <c r="T5">
-        <v>0.2390502329082034</v>
+        <v>1.310766421529405E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>7.5058728696125</v>
+        <v>0.04854733333333333</v>
       </c>
       <c r="H6">
-        <v>7.5058728696125</v>
+        <v>0.145642</v>
       </c>
       <c r="I6">
-        <v>0.3207119582065502</v>
+        <v>0.001927133137983325</v>
       </c>
       <c r="J6">
-        <v>0.3207119582065502</v>
+        <v>0.001927133137983326</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.9278633173322</v>
+        <v>0.082465</v>
       </c>
       <c r="N6">
-        <v>1.9278633173322</v>
+        <v>0.247395</v>
       </c>
       <c r="O6">
-        <v>0.02490822441903142</v>
+        <v>0.0009547830575007487</v>
       </c>
       <c r="P6">
-        <v>0.02490822441903142</v>
+        <v>0.0009547830575007488</v>
       </c>
       <c r="Q6">
-        <v>14.47029696988491</v>
+        <v>0.004003455843333333</v>
       </c>
       <c r="R6">
-        <v>14.47029696988491</v>
+        <v>0.03603110259</v>
       </c>
       <c r="S6">
-        <v>0.007988365428875779</v>
+        <v>1.839994069694732E-06</v>
       </c>
       <c r="T6">
-        <v>0.007988365428875779</v>
+        <v>1.839994069694732E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,235 +850,1165 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>7.5058728696125</v>
+        <v>0.04854733333333333</v>
       </c>
       <c r="H7">
-        <v>7.5058728696125</v>
+        <v>0.145642</v>
       </c>
       <c r="I7">
-        <v>0.3207119582065502</v>
+        <v>0.001927133137983325</v>
       </c>
       <c r="J7">
-        <v>0.3207119582065502</v>
+        <v>0.001927133137983326</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.7798786524662</v>
+        <v>20.93318133333333</v>
       </c>
       <c r="N7">
-        <v>17.7798786524662</v>
+        <v>62.799544</v>
       </c>
       <c r="O7">
-        <v>0.2297181566956812</v>
+        <v>0.242365207987117</v>
       </c>
       <c r="P7">
-        <v>0.2297181566956812</v>
+        <v>0.2423652079871169</v>
       </c>
       <c r="Q7">
-        <v>133.4535088025485</v>
+        <v>1.016250131916444</v>
       </c>
       <c r="R7">
-        <v>133.4535088025485</v>
+        <v>9.146251187248</v>
       </c>
       <c r="S7">
-        <v>0.07367335986947106</v>
+        <v>0.000467070023806194</v>
       </c>
       <c r="T7">
-        <v>0.07367335986947106</v>
+        <v>0.000467070023806194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.48420530971494</v>
+        <v>10.38698433333333</v>
       </c>
       <c r="H8">
-        <v>6.48420530971494</v>
+        <v>31.160953</v>
       </c>
       <c r="I8">
-        <v>0.277058007565128</v>
+        <v>0.4123213436882281</v>
       </c>
       <c r="J8">
-        <v>0.277058007565128</v>
+        <v>0.4123213436882281</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.6909230213197</v>
+        <v>62.52283866666667</v>
       </c>
       <c r="N8">
-        <v>57.6909230213197</v>
+        <v>187.568516</v>
       </c>
       <c r="O8">
-        <v>0.7453736188852874</v>
+        <v>0.723891918581047</v>
       </c>
       <c r="P8">
-        <v>0.7453736188852874</v>
+        <v>0.723891918581047</v>
       </c>
       <c r="Q8">
-        <v>374.0797893771971</v>
+        <v>649.4237457061942</v>
       </c>
       <c r="R8">
-        <v>374.0797893771971</v>
+        <v>5844.813711355748</v>
       </c>
       <c r="S8">
-        <v>0.2065117297399668</v>
+        <v>0.2984760885543867</v>
       </c>
       <c r="T8">
-        <v>0.2065117297399668</v>
+        <v>0.2984760885543867</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.48420530971494</v>
+        <v>10.38698433333333</v>
       </c>
       <c r="H9">
-        <v>6.48420530971494</v>
+        <v>31.160953</v>
       </c>
       <c r="I9">
-        <v>0.277058007565128</v>
+        <v>0.4123213436882281</v>
       </c>
       <c r="J9">
-        <v>0.277058007565128</v>
+        <v>0.4123213436882281</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.9278633173322</v>
+        <v>2.158875666666667</v>
       </c>
       <c r="N9">
-        <v>1.9278633173322</v>
+        <v>6.476627000000001</v>
       </c>
       <c r="O9">
-        <v>0.02490822441903142</v>
+        <v>0.02499554853312275</v>
       </c>
       <c r="P9">
-        <v>0.02490822441903142</v>
+        <v>0.02499554853312275</v>
       </c>
       <c r="Q9">
-        <v>12.50066155865011</v>
+        <v>22.42420772728122</v>
       </c>
       <c r="R9">
-        <v>12.50066155865011</v>
+        <v>201.817869545531</v>
       </c>
       <c r="S9">
-        <v>0.006901023029521913</v>
+        <v>0.01030619815740149</v>
       </c>
       <c r="T9">
-        <v>0.006901023029521913</v>
+        <v>0.01030619815740149</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.38698433333333</v>
+      </c>
+      <c r="H10">
+        <v>31.160953</v>
+      </c>
+      <c r="I10">
+        <v>0.4123213436882281</v>
+      </c>
+      <c r="J10">
+        <v>0.4123213436882281</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.08558466666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.256754</v>
+      </c>
+      <c r="O10">
+        <v>0.0009909026825341953</v>
+      </c>
+      <c r="P10">
+        <v>0.0009909026825341953</v>
+      </c>
+      <c r="Q10">
+        <v>0.8889665918402221</v>
+      </c>
+      <c r="R10">
+        <v>8.000699326562</v>
+      </c>
+      <c r="S10">
+        <v>0.0004085703255267691</v>
+      </c>
+      <c r="T10">
+        <v>0.0004085703255267691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.38698433333333</v>
+      </c>
+      <c r="H11">
+        <v>31.160953</v>
+      </c>
+      <c r="I11">
+        <v>0.4123213436882281</v>
+      </c>
+      <c r="J11">
+        <v>0.4123213436882281</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.5874603333333334</v>
+      </c>
+      <c r="N11">
+        <v>1.762381</v>
+      </c>
+      <c r="O11">
+        <v>0.006801639158678337</v>
+      </c>
+      <c r="P11">
+        <v>0.006801639158678337</v>
+      </c>
+      <c r="Q11">
+        <v>6.101941278788111</v>
+      </c>
+      <c r="R11">
+        <v>54.917471509093</v>
+      </c>
+      <c r="S11">
+        <v>0.002804460997188721</v>
+      </c>
+      <c r="T11">
+        <v>0.002804460997188721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10.38698433333333</v>
+      </c>
+      <c r="H12">
+        <v>31.160953</v>
+      </c>
+      <c r="I12">
+        <v>0.4123213436882281</v>
+      </c>
+      <c r="J12">
+        <v>0.4123213436882281</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.082465</v>
+      </c>
+      <c r="N12">
+        <v>0.247395</v>
+      </c>
+      <c r="O12">
+        <v>0.0009547830575007487</v>
+      </c>
+      <c r="P12">
+        <v>0.0009547830575007488</v>
+      </c>
+      <c r="Q12">
+        <v>0.8565626630483333</v>
+      </c>
+      <c r="R12">
+        <v>7.709063967435</v>
+      </c>
+      <c r="S12">
+        <v>0.0003936774331994634</v>
+      </c>
+      <c r="T12">
+        <v>0.0003936774331994635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>6.48420530971494</v>
-      </c>
-      <c r="H10">
-        <v>6.48420530971494</v>
-      </c>
-      <c r="I10">
-        <v>0.277058007565128</v>
-      </c>
-      <c r="J10">
-        <v>0.277058007565128</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>17.7798786524662</v>
-      </c>
-      <c r="N10">
-        <v>17.7798786524662</v>
-      </c>
-      <c r="O10">
-        <v>0.2297181566956812</v>
-      </c>
-      <c r="P10">
-        <v>0.2297181566956812</v>
-      </c>
-      <c r="Q10">
-        <v>115.2883835644086</v>
-      </c>
-      <c r="R10">
-        <v>115.2883835644086</v>
-      </c>
-      <c r="S10">
-        <v>0.06364525479563929</v>
-      </c>
-      <c r="T10">
-        <v>0.06364525479563929</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.38698433333333</v>
+      </c>
+      <c r="H13">
+        <v>31.160953</v>
+      </c>
+      <c r="I13">
+        <v>0.4123213436882281</v>
+      </c>
+      <c r="J13">
+        <v>0.4123213436882281</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>20.93318133333333</v>
+      </c>
+      <c r="N13">
+        <v>62.799544</v>
+      </c>
+      <c r="O13">
+        <v>0.242365207987117</v>
+      </c>
+      <c r="P13">
+        <v>0.2423652079871169</v>
+      </c>
+      <c r="Q13">
+        <v>217.4326265561591</v>
+      </c>
+      <c r="R13">
+        <v>1956.893639005432</v>
+      </c>
+      <c r="S13">
+        <v>0.09993234822052494</v>
+      </c>
+      <c r="T13">
+        <v>0.09993234822052495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.253798333333334</v>
+      </c>
+      <c r="H14">
+        <v>24.761395</v>
+      </c>
+      <c r="I14">
+        <v>0.3276424715892025</v>
+      </c>
+      <c r="J14">
+        <v>0.3276424715892025</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>62.52283866666667</v>
+      </c>
+      <c r="N14">
+        <v>187.568516</v>
+      </c>
+      <c r="O14">
+        <v>0.723891918581047</v>
+      </c>
+      <c r="P14">
+        <v>0.723891918581047</v>
+      </c>
+      <c r="Q14">
+        <v>516.0509015822023</v>
+      </c>
+      <c r="R14">
+        <v>4644.45811423982</v>
+      </c>
+      <c r="S14">
+        <v>0.237177737367344</v>
+      </c>
+      <c r="T14">
+        <v>0.237177737367344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.253798333333334</v>
+      </c>
+      <c r="H15">
+        <v>24.761395</v>
+      </c>
+      <c r="I15">
+        <v>0.3276424715892025</v>
+      </c>
+      <c r="J15">
+        <v>0.3276424715892025</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.158875666666667</v>
+      </c>
+      <c r="N15">
+        <v>6.476627000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.02499554853312275</v>
+      </c>
+      <c r="P15">
+        <v>0.02499554853312275</v>
+      </c>
+      <c r="Q15">
+        <v>17.81892437940722</v>
+      </c>
+      <c r="R15">
+        <v>160.370319414665</v>
+      </c>
+      <c r="S15">
+        <v>0.008189603300120203</v>
+      </c>
+      <c r="T15">
+        <v>0.008189603300120203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.253798333333334</v>
+      </c>
+      <c r="H16">
+        <v>24.761395</v>
+      </c>
+      <c r="I16">
+        <v>0.3276424715892025</v>
+      </c>
+      <c r="J16">
+        <v>0.3276424715892025</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.08558466666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.256754</v>
+      </c>
+      <c r="O16">
+        <v>0.0009909026825341953</v>
+      </c>
+      <c r="P16">
+        <v>0.0009909026825341953</v>
+      </c>
+      <c r="Q16">
+        <v>0.7063985790922221</v>
+      </c>
+      <c r="R16">
+        <v>6.357587211829999</v>
+      </c>
+      <c r="S16">
+        <v>0.0003246618040098746</v>
+      </c>
+      <c r="T16">
+        <v>0.0003246618040098746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.253798333333334</v>
+      </c>
+      <c r="H17">
+        <v>24.761395</v>
+      </c>
+      <c r="I17">
+        <v>0.3276424715892025</v>
+      </c>
+      <c r="J17">
+        <v>0.3276424715892025</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.5874603333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.762381</v>
+      </c>
+      <c r="O17">
+        <v>0.006801639158678337</v>
+      </c>
+      <c r="P17">
+        <v>0.006801639158678337</v>
+      </c>
+      <c r="Q17">
+        <v>4.848779120166112</v>
+      </c>
+      <c r="R17">
+        <v>43.639012081495</v>
+      </c>
+      <c r="S17">
+        <v>0.002228505864807274</v>
+      </c>
+      <c r="T17">
+        <v>0.002228505864807274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8.253798333333334</v>
+      </c>
+      <c r="H18">
+        <v>24.761395</v>
+      </c>
+      <c r="I18">
+        <v>0.3276424715892025</v>
+      </c>
+      <c r="J18">
+        <v>0.3276424715892025</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.082465</v>
+      </c>
+      <c r="N18">
+        <v>0.247395</v>
+      </c>
+      <c r="O18">
+        <v>0.0009547830575007487</v>
+      </c>
+      <c r="P18">
+        <v>0.0009547830575007488</v>
+      </c>
+      <c r="Q18">
+        <v>0.6806494795583333</v>
+      </c>
+      <c r="R18">
+        <v>6.125845316025</v>
+      </c>
+      <c r="S18">
+        <v>0.0003128274807910409</v>
+      </c>
+      <c r="T18">
+        <v>0.000312827480791041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.253798333333334</v>
+      </c>
+      <c r="H19">
+        <v>24.761395</v>
+      </c>
+      <c r="I19">
+        <v>0.3276424715892025</v>
+      </c>
+      <c r="J19">
+        <v>0.3276424715892025</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>20.93318133333333</v>
+      </c>
+      <c r="N19">
+        <v>62.799544</v>
+      </c>
+      <c r="O19">
+        <v>0.242365207987117</v>
+      </c>
+      <c r="P19">
+        <v>0.2423652079871169</v>
+      </c>
+      <c r="Q19">
+        <v>172.7782572004311</v>
+      </c>
+      <c r="R19">
+        <v>1555.00431480388</v>
+      </c>
+      <c r="S19">
+        <v>0.07940913577213013</v>
+      </c>
+      <c r="T19">
+        <v>0.07940913577213012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.502148666666667</v>
+      </c>
+      <c r="H20">
+        <v>19.506446</v>
+      </c>
+      <c r="I20">
+        <v>0.2581090515845861</v>
+      </c>
+      <c r="J20">
+        <v>0.2581090515845861</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>62.52283866666667</v>
+      </c>
+      <c r="N20">
+        <v>187.568516</v>
+      </c>
+      <c r="O20">
+        <v>0.723891918581047</v>
+      </c>
+      <c r="P20">
+        <v>0.723891918581047</v>
+      </c>
+      <c r="Q20">
+        <v>406.5327920726818</v>
+      </c>
+      <c r="R20">
+        <v>3658.795128654136</v>
+      </c>
+      <c r="S20">
+        <v>0.1868430565547005</v>
+      </c>
+      <c r="T20">
+        <v>0.1868430565547005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.502148666666667</v>
+      </c>
+      <c r="H21">
+        <v>19.506446</v>
+      </c>
+      <c r="I21">
+        <v>0.2581090515845861</v>
+      </c>
+      <c r="J21">
+        <v>0.2581090515845861</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.158875666666667</v>
+      </c>
+      <c r="N21">
+        <v>6.476627000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.02499554853312275</v>
+      </c>
+      <c r="P21">
+        <v>0.02499554853312275</v>
+      </c>
+      <c r="Q21">
+        <v>14.03733053751578</v>
+      </c>
+      <c r="R21">
+        <v>126.335974837642</v>
+      </c>
+      <c r="S21">
+        <v>0.006451577325720806</v>
+      </c>
+      <c r="T21">
+        <v>0.006451577325720806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.502148666666667</v>
+      </c>
+      <c r="H22">
+        <v>19.506446</v>
+      </c>
+      <c r="I22">
+        <v>0.2581090515845861</v>
+      </c>
+      <c r="J22">
+        <v>0.2581090515845861</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.08558466666666666</v>
+      </c>
+      <c r="N22">
+        <v>0.256754</v>
+      </c>
+      <c r="O22">
+        <v>0.0009909026825341953</v>
+      </c>
+      <c r="P22">
+        <v>0.0009909026825341953</v>
+      </c>
+      <c r="Q22">
+        <v>0.5564842262537777</v>
+      </c>
+      <c r="R22">
+        <v>5.008358036284</v>
+      </c>
+      <c r="S22">
+        <v>0.0002557609516015234</v>
+      </c>
+      <c r="T22">
+        <v>0.0002557609516015234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.502148666666667</v>
+      </c>
+      <c r="H23">
+        <v>19.506446</v>
+      </c>
+      <c r="I23">
+        <v>0.2581090515845861</v>
+      </c>
+      <c r="J23">
+        <v>0.2581090515845861</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.5874603333333334</v>
+      </c>
+      <c r="N23">
+        <v>1.762381</v>
+      </c>
+      <c r="O23">
+        <v>0.006801639158678337</v>
+      </c>
+      <c r="P23">
+        <v>0.006801639158678337</v>
+      </c>
+      <c r="Q23">
+        <v>3.819754423102889</v>
+      </c>
+      <c r="R23">
+        <v>34.377789807926</v>
+      </c>
+      <c r="S23">
+        <v>0.001755564632467048</v>
+      </c>
+      <c r="T23">
+        <v>0.001755564632467048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.502148666666667</v>
+      </c>
+      <c r="H24">
+        <v>19.506446</v>
+      </c>
+      <c r="I24">
+        <v>0.2581090515845861</v>
+      </c>
+      <c r="J24">
+        <v>0.2581090515845861</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.082465</v>
+      </c>
+      <c r="N24">
+        <v>0.247395</v>
+      </c>
+      <c r="O24">
+        <v>0.0009547830575007487</v>
+      </c>
+      <c r="P24">
+        <v>0.0009547830575007488</v>
+      </c>
+      <c r="Q24">
+        <v>0.5361996897966667</v>
+      </c>
+      <c r="R24">
+        <v>4.82579720817</v>
+      </c>
+      <c r="S24">
+        <v>0.0002464381494405496</v>
+      </c>
+      <c r="T24">
+        <v>0.0002464381494405496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.502148666666667</v>
+      </c>
+      <c r="H25">
+        <v>19.506446</v>
+      </c>
+      <c r="I25">
+        <v>0.2581090515845861</v>
+      </c>
+      <c r="J25">
+        <v>0.2581090515845861</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>20.93318133333333</v>
+      </c>
+      <c r="N25">
+        <v>62.799544</v>
+      </c>
+      <c r="O25">
+        <v>0.242365207987117</v>
+      </c>
+      <c r="P25">
+        <v>0.2423652079871169</v>
+      </c>
+      <c r="Q25">
+        <v>136.1106570956249</v>
+      </c>
+      <c r="R25">
+        <v>1224.995913860624</v>
+      </c>
+      <c r="S25">
+        <v>0.06255665397065573</v>
+      </c>
+      <c r="T25">
+        <v>0.06255665397065571</v>
       </c>
     </row>
   </sheetData>
